--- a/Planilha_de_planejamento_de_testes.xlsx
+++ b/Planilha_de_planejamento_de_testes.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="27">
   <si>
     <t xml:space="preserve">Ord</t>
   </si>
@@ -103,27 +103,6 @@
   <si>
     <t xml:space="preserve">Deve sair da mensagem de erro ao clicar no ícone X</t>
   </si>
-  <si>
-    <t xml:space="preserve">Novos casos de Uso </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cadastrar produto </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sucesso</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Produto nao valido</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Produto nao encontrado</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Excluir Produto  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Excluir Produto nao encontrado</t>
-  </si>
 </sst>
 </file>
 
@@ -132,7 +111,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="7">
+  <fonts count="5">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -162,20 +141,8 @@
       <family val="0"/>
       <charset val="1"/>
     </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Arial"/>
-      <family val="0"/>
-      <charset val="1"/>
-    </font>
   </fonts>
-  <fills count="6">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -198,12 +165,6 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFFFF"/>
         <bgColor rgb="FFFFFFCC"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF729FCF"/>
-        <bgColor rgb="FF969696"/>
       </patternFill>
     </fill>
   </fills>
@@ -248,7 +209,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="15">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -309,14 +270,6 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="5" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="5" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -344,7 +297,7 @@
       <rgbColor rgb="FF008080"/>
       <rgbColor rgb="FFC0C0C0"/>
       <rgbColor rgb="FF808080"/>
-      <rgbColor rgb="FF729FCF"/>
+      <rgbColor rgb="FF9999FF"/>
       <rgbColor rgb="FF993366"/>
       <rgbColor rgb="FFFFFFCC"/>
       <rgbColor rgb="FFCCFFFF"/>
@@ -400,7 +353,7 @@
       <selection pane="topLeft" activeCell="D17" activeCellId="0" sqref="D17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="17.83203125" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="17.8046875" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="8.47"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="8.61"/>
@@ -3528,15 +3481,15 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:D1000"/>
+  <dimension ref="B1:D1000"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E14" activeCellId="0" sqref="E14"/>
+      <selection pane="topLeft" activeCell="C8" activeCellId="0" sqref="C8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.66015625" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.640625" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="36.83"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="36.82"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3641,72 +3594,22 @@
       <c r="C14" s="2"/>
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="15"/>
-      <c r="B15" s="15" t="s">
-        <v>27</v>
-      </c>
-      <c r="C15" s="16"/>
-      <c r="D15" s="15"/>
+      <c r="C15" s="2"/>
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="15"/>
-      <c r="B16" s="15" t="n">
-        <v>1</v>
-      </c>
-      <c r="C16" s="16" t="s">
-        <v>28</v>
-      </c>
-      <c r="D16" s="15" t="s">
-        <v>29</v>
-      </c>
+      <c r="C16" s="2"/>
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="15"/>
-      <c r="B17" s="15" t="n">
-        <v>2</v>
-      </c>
-      <c r="C17" s="16" t="s">
-        <v>30</v>
-      </c>
-      <c r="D17" s="15" t="s">
-        <v>21</v>
-      </c>
+      <c r="C17" s="2"/>
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="15"/>
-      <c r="B18" s="15" t="n">
-        <v>3</v>
-      </c>
-      <c r="C18" s="16" t="s">
-        <v>31</v>
-      </c>
-      <c r="D18" s="15" t="s">
-        <v>21</v>
-      </c>
+      <c r="C18" s="2"/>
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="15"/>
-      <c r="B19" s="15" t="n">
-        <v>4</v>
-      </c>
-      <c r="C19" s="16" t="s">
-        <v>32</v>
-      </c>
-      <c r="D19" s="15" t="s">
-        <v>29</v>
-      </c>
+      <c r="C19" s="2"/>
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="15"/>
-      <c r="B20" s="15" t="n">
-        <v>5</v>
-      </c>
-      <c r="C20" s="16" t="s">
-        <v>33</v>
-      </c>
-      <c r="D20" s="15" t="s">
-        <v>21</v>
-      </c>
+      <c r="C20" s="2"/>
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C21" s="2"/>
